--- a/data/trans_bre/P2C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.92986587507805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.409016275741505</v>
+        <v>9.409016275741502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.224688912060068</v>
@@ -649,7 +649,7 @@
         <v>0.2125926538763856</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5474193210148831</v>
+        <v>0.5474193210148829</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.520995844497248</v>
+        <v>1.775224096786649</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8476770332727159</v>
+        <v>-0.9265834492574412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.406284632816004</v>
+        <v>1.546047533315218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.687631221469274</v>
+        <v>5.261591858540775</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06526071237659409</v>
+        <v>0.07478850160580074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.02000260779752185</v>
+        <v>-0.02021348838002109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04739765432376411</v>
+        <v>0.051699412208659</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2873234879666135</v>
+        <v>0.2709170127873552</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.372303760641493</v>
+        <v>8.575142801152353</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.786185083671116</v>
+        <v>8.040673917842055</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.19205683158995</v>
+        <v>10.52766079771711</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.17641146937028</v>
+        <v>13.00560718180229</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4250248447080999</v>
+        <v>0.4438897646805369</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2097170110050588</v>
+        <v>0.2164477213070453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4007343221392311</v>
+        <v>0.4175212051406391</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8752670552452686</v>
+        <v>0.842158973304696</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.142647551935916</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.440521401580618</v>
+        <v>3.440521401580612</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2081022251562117</v>
@@ -749,7 +749,7 @@
         <v>0.2493776595363519</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2543076244441104</v>
+        <v>0.25430762444411</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.398630274075002</v>
+        <v>3.348252214912725</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.177746636965846</v>
+        <v>6.184640756835124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.943019407192396</v>
+        <v>5.329639918320953</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.217403673437027</v>
+        <v>1.21013891495679</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09865447993696345</v>
+        <v>0.09371271347231695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1247698631785363</v>
+        <v>0.1240265166454011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1456041436330074</v>
+        <v>0.1544561471239837</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08225372022712649</v>
+        <v>0.07869687504757072</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.56302871363565</v>
+        <v>10.14813154911638</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.93141891775786</v>
+        <v>12.96288195946391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.00459707363037</v>
+        <v>11.45464275817625</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.744632182609247</v>
+        <v>5.595435221300473</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3290447962440099</v>
+        <v>0.3203347972841333</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.275695223987892</v>
+        <v>0.2772707019424192</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.357432389068605</v>
+        <v>0.3663701398364357</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4780072148804544</v>
+        <v>0.4535466097326792</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8622704223567731</v>
+        <v>1.058316808911113</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.384194609733142</v>
+        <v>3.40071317818672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.435240994508998</v>
+        <v>4.450720405092412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.568141298551513</v>
+        <v>-2.859401195328295</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02777874607650728</v>
+        <v>0.0304652814775875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07938757755440096</v>
+        <v>0.07790908973196216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1308658947755108</v>
+        <v>0.1334482047889009</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1984772200943687</v>
+        <v>-0.2221774981008099</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.54461117244839</v>
+        <v>13.17510270277153</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.81767554067772</v>
+        <v>16.99500997916084</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.82672605750704</v>
+        <v>15.90336582758565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.256399347406677</v>
+        <v>4.030143932339489</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4602791980959107</v>
+        <v>0.4784383400290643</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4531925441887115</v>
+        <v>0.4649415778369147</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5713000610466304</v>
+        <v>0.5725927386922003</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4944182927688837</v>
+        <v>0.4410469012827903</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.930079775047802</v>
+        <v>3.237156731000474</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.348880357658446</v>
+        <v>4.263558312479612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.37498283868982</v>
+        <v>5.237004837913945</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.633830365847379</v>
+        <v>2.869527465700508</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09676722206335499</v>
+        <v>0.1076680610895309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09591887202737705</v>
+        <v>0.09259994441847567</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1680237726108327</v>
+        <v>0.1627547683732664</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1778281162763974</v>
+        <v>0.1938285532597946</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.749600508390183</v>
+        <v>7.816951059135767</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.315952025874601</v>
+        <v>9.091571131832842</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.749376389379439</v>
+        <v>9.925774498085458</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.113599582955173</v>
+        <v>6.257349740075477</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2753526683338518</v>
+        <v>0.2806250065070418</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2201879640430433</v>
+        <v>0.2095584760961171</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3299234800727998</v>
+        <v>0.3303819028667659</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4812583018287769</v>
+        <v>0.4991284325649497</v>
       </c>
     </row>
     <row r="16">
